--- a/data/metadata/mapping-agua-corriente.xlsx
+++ b/data/metadata/mapping-agua-corriente.xlsx
@@ -13,19 +13,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>agua-corriente-abastecimiento-privado</t>
+    <t>Agua corriente abastecimiento privado</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/agua-corriente/agua-corriente-abastecimiento-privado</t>
   </si>
   <si>
-    <t>sin-agua-corriente</t>
+    <t>Sin agua corriente</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/agua-corriente/sin-agua-corriente</t>
   </si>
   <si>
-    <t>agua-corriente-abastecimiento-publico</t>
+    <t>Agua corriente abastecimiento público</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/agua-corriente/agua-corriente-abastecimiento-publico</t>
